--- a/cadastro_salao/data/servicos.xlsx
+++ b/cadastro_salao/data/servicos.xlsx
@@ -28,34 +28,34 @@
     <t>valor</t>
   </si>
   <si>
-    <t>Corte de cabelo</t>
-  </si>
-  <si>
-    <t>Barba</t>
-  </si>
-  <si>
-    <t>Pintura</t>
-  </si>
-  <si>
-    <t>Pacote completo</t>
-  </si>
-  <si>
-    <t>Pendiando</t>
-  </si>
-  <si>
-    <t>Corte moderno com acabamento na navalha</t>
-  </si>
-  <si>
-    <t>Barba desenhada e hidratação com toalha quente</t>
-  </si>
-  <si>
-    <t>Pintura de cabelo com tinta temporária</t>
-  </si>
-  <si>
-    <t>Cabelo + barba + printura com desconto especial</t>
-  </si>
-  <si>
-    <t>Fff</t>
+    <t>Corte clássico</t>
+  </si>
+  <si>
+    <t>Barba e bigode</t>
+  </si>
+  <si>
+    <t>Combo clássico</t>
+  </si>
+  <si>
+    <t>Tratamento capilar</t>
+  </si>
+  <si>
+    <t>Dia do noivo</t>
+  </si>
+  <si>
+    <t>Aparagem e modelagem tradicionais</t>
+  </si>
+  <si>
+    <t>Desenho e contorno da barba com toalha quente e finalização com balm</t>
+  </si>
+  <si>
+    <t>Corte de cabelo e barba clássica</t>
+  </si>
+  <si>
+    <t>Lavagem especial com massagem e hidratação profunda para revitalização dos fios</t>
+  </si>
+  <si>
+    <t>Pacote completo com corte, barba, tratamento facial e relaxamento</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,12 +486,12 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -500,7 +500,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
